--- a/medicine/Enfance/Établissement_pénitentiaire_pour_mineurs/Établissement_pénitentiaire_pour_mineurs.xlsx
+++ b/medicine/Enfance/Établissement_pénitentiaire_pour_mineurs/Établissement_pénitentiaire_pour_mineurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tablissement_p%C3%A9nitentiaire_pour_mineurs</t>
+          <t>Établissement_pénitentiaire_pour_mineurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un établissement pénitentiaire pour mineurs (EPM) est une prison destinée aux individus n’ayant pas atteint la majorité.
 En dessous de 13 ans aucune incarcération n'est possible .
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tablissement_p%C3%A9nitentiaire_pour_mineurs</t>
+          <t>Établissement_pénitentiaire_pour_mineurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,6 +530,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tablissement_p%C3%A9nitentiaire_pour_mineurs</t>
+          <t>Établissement_pénitentiaire_pour_mineurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-En France, les premiers établissements pénitentiaires pour mineurs ont été ouverts en 2007.
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les premiers établissements pénitentiaires pour mineurs ont été ouverts en 2007.
 </t>
         </is>
       </c>
